--- a/test/data/input/foofile.xlsx
+++ b/test/data/input/foofile.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projectsrc\@dictadata\xlsx-junction\test\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drewlab\code\@dictadata\js\xlsx-junction\test\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE536EE0-721D-493F-AC3F-D3F840098C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="foo" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Foo</t>
   </si>
@@ -79,12 +80,18 @@
   </si>
   <si>
     <t>2018-10-10T14:13:30.000-05:00</t>
+  </si>
+  <si>
+    <t>eighth</t>
+  </si>
+  <si>
+    <t>(bigger data)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -562,9 +569,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -885,22 +893,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" customWidth="1"/>
+    <col min="4" max="4" width="6.265625" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -920,7 +930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -940,7 +950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -960,7 +970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -980,7 +990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1000,7 +1010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1020,12 +1030,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1042,6 +1052,26 @@
         <v>19</v>
       </c>
       <c r="F8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>3.44</v>
+      </c>
+      <c r="E9" s="2">
+        <v>43383</v>
+      </c>
+      <c r="F9" t="b">
         <v>0</v>
       </c>
     </row>
